--- a/public/files/Template_Direct Material_New_2024_New.xlsx
+++ b/public/files/Template_Direct Material_New_2024_New.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Project Management\19_Cubic Pro\Templete yang akan digunakan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA913AA-AC25-4A97-A3B3-96FEA130A6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A34F7A7-3735-49BC-8AE9-74253A7747EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -693,10 +693,10 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q12" sqref="Q12"/>
+      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -793,9 +793,18 @@
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="4"/>
+      <c r="Q2" s="5">
+        <f t="shared" ref="Q2:Q28" si="0">SUM(E2:J2)</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="5">
+        <f>SUM(K2:P2)</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <f>Q2+R2</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
@@ -822,9 +831,18 @@
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="4"/>
+      <c r="Q3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <f t="shared" ref="R3:R10" si="1">SUM(K3:P3)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="4">
+        <f t="shared" ref="S3:S10" si="2">Q3+R3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
@@ -851,9 +869,18 @@
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="4"/>
+      <c r="Q4" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S4" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
@@ -880,9 +907,18 @@
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="4"/>
+      <c r="Q5" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
@@ -909,9 +945,18 @@
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="4"/>
+      <c r="Q6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
@@ -938,9 +983,18 @@
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="4"/>
+      <c r="Q7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
@@ -967,9 +1021,18 @@
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="4"/>
+      <c r="Q8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
@@ -996,9 +1059,18 @@
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="4"/>
+      <c r="Q9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
@@ -1025,9 +1097,18 @@
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="4"/>
+      <c r="Q10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
@@ -1054,9 +1135,18 @@
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="4"/>
+      <c r="Q11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="5">
+        <f>SUM(K11:P11)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
+        <f>Q11+R11</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
@@ -1083,9 +1173,18 @@
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="4"/>
+      <c r="Q12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="5">
+        <f t="shared" ref="R12:R19" si="3">SUM(K12:P12)</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <f t="shared" ref="S12:S19" si="4">Q12+R12</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
@@ -1112,9 +1211,18 @@
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="4"/>
+      <c r="Q13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
@@ -1141,9 +1249,18 @@
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="4"/>
+      <c r="Q14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
@@ -1170,9 +1287,18 @@
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="4"/>
+      <c r="Q15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
@@ -1199,9 +1325,18 @@
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="4"/>
+      <c r="Q16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
@@ -1228,9 +1363,18 @@
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="4"/>
+      <c r="Q17" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
@@ -1257,9 +1401,18 @@
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="4"/>
+      <c r="Q18" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
@@ -1286,9 +1439,18 @@
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
       <c r="P19" s="13"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="4"/>
+      <c r="Q19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
@@ -1315,9 +1477,18 @@
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="4"/>
+      <c r="Q20" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="5">
+        <f>SUM(K20:P20)</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="4">
+        <f>Q20+R20</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
@@ -1344,9 +1515,18 @@
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="4"/>
+      <c r="Q21" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="5">
+        <f t="shared" ref="R21:R28" si="5">SUM(K21:P21)</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="4">
+        <f t="shared" ref="S21:S28" si="6">Q21+R21</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
@@ -1373,9 +1553,18 @@
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="4"/>
+      <c r="Q22" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
@@ -1402,9 +1591,18 @@
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
       <c r="P23" s="13"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="4"/>
+      <c r="Q23" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
@@ -1431,9 +1629,18 @@
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="4"/>
+      <c r="Q24" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
@@ -1460,9 +1667,18 @@
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
       <c r="P25" s="13"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="4"/>
+      <c r="Q25" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
@@ -1489,9 +1705,18 @@
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="4"/>
+      <c r="Q26" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
@@ -1518,9 +1743,18 @@
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
       <c r="P27" s="13"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="4"/>
+      <c r="Q27" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
@@ -1547,9 +1781,18 @@
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="2"/>
+      <c r="Q28" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/public/files/Template_Direct Material_New_2024_New.xlsx
+++ b/public/files/Template_Direct Material_New_2024_New.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Project Management\19_Cubic Pro\Templete yang akan digunakan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Project Management\19_Cubic Pro\New Templte 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A34F7A7-3735-49BC-8AE9-74253A7747EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68253A7C-6169-4525-AF0F-804B679BBB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">DM!$A$1:$F$325</definedName>
-    <definedName name="TblDM">'Direct Material'!$A$1:$P$28</definedName>
+    <definedName name="TblDM">'Direct Material'!$B$1:$Q$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="59">
   <si>
     <t>ACC CODE</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>Amount</t>
+  </si>
+  <si>
+    <t>DEPT</t>
+  </si>
+  <si>
+    <t>PUR1</t>
   </si>
 </sst>
 </file>
@@ -690,99 +696,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.453125" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="16" width="14.54296875" customWidth="1"/>
-    <col min="17" max="19" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.453125" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="17" width="14.54296875" customWidth="1"/>
+    <col min="18" max="20" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7">
+      <c r="F1" s="7">
         <v>45383</v>
       </c>
-      <c r="F1" s="7">
+      <c r="G1" s="7">
         <v>45413</v>
       </c>
-      <c r="G1" s="7">
+      <c r="H1" s="7">
         <v>45444</v>
       </c>
-      <c r="H1" s="7">
+      <c r="I1" s="7">
         <v>45474</v>
       </c>
-      <c r="I1" s="7">
+      <c r="J1" s="7">
         <v>45505</v>
       </c>
-      <c r="J1" s="7">
+      <c r="K1" s="7">
         <v>45536</v>
       </c>
-      <c r="K1" s="7">
+      <c r="L1" s="7">
         <v>45566</v>
       </c>
-      <c r="L1" s="7">
+      <c r="M1" s="7">
         <v>45597</v>
       </c>
-      <c r="M1" s="7">
+      <c r="N1" s="7">
         <v>45627</v>
       </c>
-      <c r="N1" s="7">
+      <c r="O1" s="7">
         <v>45658</v>
       </c>
-      <c r="O1" s="7">
+      <c r="P1" s="7">
         <v>45689</v>
       </c>
-      <c r="P1" s="7">
+      <c r="Q1" s="7">
         <v>45717</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="10">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="10">
         <v>5111410101</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="F2" s="12">
+        <v>1</v>
+      </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
@@ -793,33 +806,36 @@
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
-      <c r="Q2" s="5">
-        <f t="shared" ref="Q2:Q28" si="0">SUM(E2:J2)</f>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="5">
+        <f t="shared" ref="R2:R28" si="0">SUM(F2:K2)</f>
+        <v>1</v>
+      </c>
+      <c r="S2" s="5">
+        <f>SUM(L2:Q2)</f>
         <v>0</v>
       </c>
-      <c r="R2" s="5">
-        <f>SUM(K2:P2)</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="4">
-        <f>Q2+R2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
+      <c r="T2" s="4">
+        <f>R2+S2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="10">
         <v>5111310101</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -831,33 +847,36 @@
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
-      <c r="Q3" s="5">
+      <c r="Q3" s="13"/>
+      <c r="R3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R3" s="5">
-        <f t="shared" ref="R3:R10" si="1">SUM(K3:P3)</f>
+      <c r="S3" s="5">
+        <f t="shared" ref="S3:S10" si="1">SUM(L3:Q3)</f>
         <v>0</v>
       </c>
-      <c r="S3" s="4">
-        <f t="shared" ref="S3:S10" si="2">Q3+R3</f>
+      <c r="T3" s="4">
+        <f t="shared" ref="T3:T10" si="2">R3+S3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="10">
         <v>5112210101</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>5</v>
-      </c>
       <c r="D4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -869,33 +888,36 @@
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
-      <c r="Q4" s="5">
+      <c r="Q4" s="12"/>
+      <c r="R4" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R4" s="5">
+      <c r="S4" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S4" s="4">
+      <c r="T4" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="10">
         <v>5116040101</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>5</v>
-      </c>
       <c r="D5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -907,33 +929,36 @@
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
-      <c r="Q5" s="5">
+      <c r="Q5" s="13"/>
+      <c r="R5" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R5" s="5">
+      <c r="S5" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S5" s="4">
+      <c r="T5" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="10">
         <v>5117010101</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>5</v>
-      </c>
       <c r="D6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -945,33 +970,36 @@
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
-      <c r="Q6" s="5">
+      <c r="Q6" s="12"/>
+      <c r="R6" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R6" s="5">
+      <c r="S6" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S6" s="4">
+      <c r="T6" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>5</v>
-      </c>
       <c r="D7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
@@ -983,33 +1011,36 @@
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
-      <c r="Q7" s="5">
+      <c r="Q7" s="13"/>
+      <c r="R7" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R7" s="5">
+      <c r="S7" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S7" s="4">
+      <c r="T7" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>5</v>
-      </c>
       <c r="D8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -1021,33 +1052,36 @@
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
-      <c r="Q8" s="5">
+      <c r="Q8" s="12"/>
+      <c r="R8" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R8" s="5">
+      <c r="S8" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S8" s="4">
+      <c r="T8" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="10">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="10">
         <v>5112410101</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>5</v>
-      </c>
       <c r="D9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
@@ -1059,33 +1093,36 @@
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
-      <c r="Q9" s="5">
+      <c r="Q9" s="13"/>
+      <c r="R9" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R9" s="5">
+      <c r="S9" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S9" s="4">
+      <c r="T9" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="10">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="10">
         <v>4315060101</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>5</v>
-      </c>
       <c r="D10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -1097,33 +1134,36 @@
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
-      <c r="Q10" s="5">
+      <c r="Q10" s="12"/>
+      <c r="R10" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R10" s="5">
+      <c r="S10" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S10" s="4">
+      <c r="T10" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="10">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="10">
         <v>5111410101</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
@@ -1135,33 +1175,36 @@
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
-      <c r="Q11" s="5">
+      <c r="Q11" s="13"/>
+      <c r="R11" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R11" s="5">
-        <f>SUM(K11:P11)</f>
+      <c r="S11" s="5">
+        <f>SUM(L11:Q11)</f>
         <v>0</v>
       </c>
-      <c r="S11" s="4">
-        <f>Q11+R11</f>
+      <c r="T11" s="4">
+        <f>R11+S11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="10">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="10">
         <v>5111310101</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -1173,33 +1216,36 @@
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
-      <c r="Q12" s="5">
+      <c r="Q12" s="12"/>
+      <c r="R12" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R12" s="5">
-        <f t="shared" ref="R12:R19" si="3">SUM(K12:P12)</f>
+      <c r="S12" s="5">
+        <f t="shared" ref="S12:S19" si="3">SUM(L12:Q12)</f>
         <v>0</v>
       </c>
-      <c r="S12" s="4">
-        <f t="shared" ref="S12:S19" si="4">Q12+R12</f>
+      <c r="T12" s="4">
+        <f t="shared" ref="T12:T19" si="4">R12+S12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="10">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="10">
         <v>5112210101</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -1211,33 +1257,36 @@
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
-      <c r="Q13" s="5">
+      <c r="Q13" s="13"/>
+      <c r="R13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R13" s="5">
+      <c r="S13" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S13" s="4">
+      <c r="T13" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="10">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="10">
         <v>5116040101</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="D14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -1249,33 +1298,36 @@
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
-      <c r="Q14" s="5">
+      <c r="Q14" s="12"/>
+      <c r="R14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R14" s="5">
+      <c r="S14" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S14" s="4">
+      <c r="T14" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="10">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="10">
         <v>5117010101</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
@@ -1287,33 +1339,36 @@
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
-      <c r="Q15" s="5">
+      <c r="Q15" s="13"/>
+      <c r="R15" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R15" s="5">
+      <c r="S15" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S15" s="4">
+      <c r="T15" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
@@ -1325,33 +1380,36 @@
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
-      <c r="Q16" s="5">
+      <c r="Q16" s="12"/>
+      <c r="R16" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R16" s="5">
+      <c r="S16" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S16" s="4">
+      <c r="T16" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="C17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="D17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -1363,33 +1421,36 @@
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
-      <c r="Q17" s="5">
+      <c r="Q17" s="13"/>
+      <c r="R17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R17" s="5">
+      <c r="S17" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S17" s="4">
+      <c r="T17" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="10">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="10">
         <v>5112410101</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="D18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
@@ -1401,33 +1462,36 @@
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
-      <c r="Q18" s="5">
+      <c r="Q18" s="12"/>
+      <c r="R18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R18" s="5">
+      <c r="S18" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S18" s="4">
+      <c r="T18" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="10">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="10">
         <v>4315060101</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="D19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
@@ -1439,33 +1503,36 @@
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
       <c r="P19" s="13"/>
-      <c r="Q19" s="5">
+      <c r="Q19" s="13"/>
+      <c r="R19" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R19" s="5">
+      <c r="S19" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S19" s="4">
+      <c r="T19" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="10">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="10">
         <v>5111410101</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>35</v>
-      </c>
       <c r="D20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
@@ -1477,33 +1544,36 @@
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
-      <c r="Q20" s="5">
+      <c r="Q20" s="12"/>
+      <c r="R20" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R20" s="5">
-        <f>SUM(K20:P20)</f>
+      <c r="S20" s="5">
+        <f>SUM(L20:Q20)</f>
         <v>0</v>
       </c>
-      <c r="S20" s="4">
-        <f>Q20+R20</f>
+      <c r="T20" s="4">
+        <f>R20+S20</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="10">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="10">
         <v>5111310101</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>35</v>
-      </c>
       <c r="D21" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
@@ -1515,33 +1585,36 @@
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
-      <c r="Q21" s="5">
+      <c r="Q21" s="13"/>
+      <c r="R21" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R21" s="5">
-        <f t="shared" ref="R21:R28" si="5">SUM(K21:P21)</f>
+      <c r="S21" s="5">
+        <f t="shared" ref="S21:S28" si="5">SUM(L21:Q21)</f>
         <v>0</v>
       </c>
-      <c r="S21" s="4">
-        <f t="shared" ref="S21:S28" si="6">Q21+R21</f>
+      <c r="T21" s="4">
+        <f t="shared" ref="T21:T28" si="6">R21+S21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="10">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="10">
         <v>5112210101</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>35</v>
-      </c>
       <c r="D22" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
@@ -1553,33 +1626,36 @@
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
-      <c r="Q22" s="5">
+      <c r="Q22" s="12"/>
+      <c r="R22" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R22" s="5">
+      <c r="S22" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S22" s="4">
+      <c r="T22" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="10">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A23" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="10">
         <v>5116040101</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>35</v>
-      </c>
       <c r="D23" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
@@ -1591,33 +1667,36 @@
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
       <c r="P23" s="13"/>
-      <c r="Q23" s="5">
+      <c r="Q23" s="13"/>
+      <c r="R23" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R23" s="5">
+      <c r="S23" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S23" s="4">
+      <c r="T23" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="10">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="10">
         <v>5117010101</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>35</v>
-      </c>
       <c r="D24" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
@@ -1629,33 +1708,36 @@
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
-      <c r="Q24" s="5">
+      <c r="Q24" s="12"/>
+      <c r="R24" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R24" s="5">
+      <c r="S24" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S24" s="4">
+      <c r="T24" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="C25" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>35</v>
-      </c>
       <c r="D25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
@@ -1667,33 +1749,36 @@
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
       <c r="P25" s="13"/>
-      <c r="Q25" s="5">
+      <c r="Q25" s="13"/>
+      <c r="R25" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R25" s="5">
+      <c r="S25" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S25" s="4">
+      <c r="T25" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>35</v>
-      </c>
       <c r="D26" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
@@ -1705,33 +1790,36 @@
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
-      <c r="Q26" s="5">
+      <c r="Q26" s="12"/>
+      <c r="R26" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R26" s="5">
+      <c r="S26" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S26" s="4">
+      <c r="T26" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27" s="10">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="10">
         <v>5112410101</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>35</v>
-      </c>
       <c r="D27" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
@@ -1743,33 +1831,36 @@
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
       <c r="P27" s="13"/>
-      <c r="Q27" s="5">
+      <c r="Q27" s="13"/>
+      <c r="R27" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R27" s="5">
+      <c r="S27" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S27" s="4">
+      <c r="T27" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="14">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A28" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="14">
         <v>4315060101</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="C28" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>35</v>
-      </c>
       <c r="D28" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
@@ -1781,15 +1872,16 @@
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
-      <c r="Q28" s="3">
+      <c r="Q28" s="16"/>
+      <c r="R28" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R28" s="3">
+      <c r="S28" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S28" s="2">
+      <c r="T28" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -1798,7 +1890,7 @@
   <sheetProtection insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <protectedRanges>
     <protectedRange sqref="A29:XFD139" name="OPEN 2"/>
-    <protectedRange sqref="E2:P1048576" name="OPEN 1"/>
+    <protectedRange sqref="F2:Q1048576" name="OPEN 1"/>
   </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/files/Template_Direct Material_New_2024_New.xlsx
+++ b/public/files/Template_Direct Material_New_2024_New.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Project Management\19_Cubic Pro\New Templte 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fabian\00_Project\cubic_pro\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68253A7C-6169-4525-AF0F-804B679BBB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C21B8F-50E6-430A-8605-5E3D559ED34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Direct Material" sheetId="1" r:id="rId1"/>
@@ -186,15 +186,6 @@
     <t>DIR0038</t>
   </si>
   <si>
-    <t>FY 2024 1st</t>
-  </si>
-  <si>
-    <t>FY 2024 2nd</t>
-  </si>
-  <si>
-    <t>FY 2024 TOTAL</t>
-  </si>
-  <si>
     <t>5111410101</t>
   </si>
   <si>
@@ -226,6 +217,15 @@
   </si>
   <si>
     <t>PUR1</t>
+  </si>
+  <si>
+    <t>FY 2025 1st</t>
+  </si>
+  <si>
+    <t>FY 2025 2nd</t>
+  </si>
+  <si>
+    <t>FY 2025 TOTAL</t>
   </si>
 </sst>
 </file>
@@ -286,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -346,6 +346,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -361,9 +372,6 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -381,9 +389,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Koma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -699,10 +710,10 @@
   <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -716,100 +727,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="16">
+        <v>45748</v>
+      </c>
+      <c r="G1" s="16">
+        <v>45778</v>
+      </c>
+      <c r="H1" s="16">
+        <v>45809</v>
+      </c>
+      <c r="I1" s="16">
+        <v>45839</v>
+      </c>
+      <c r="J1" s="16">
+        <v>45870</v>
+      </c>
+      <c r="K1" s="16">
+        <v>45901</v>
+      </c>
+      <c r="L1" s="16">
+        <v>45931</v>
+      </c>
+      <c r="M1" s="16">
+        <v>45962</v>
+      </c>
+      <c r="N1" s="16">
+        <v>45992</v>
+      </c>
+      <c r="O1" s="16">
+        <v>46023</v>
+      </c>
+      <c r="P1" s="16">
+        <v>46054</v>
+      </c>
+      <c r="Q1" s="16">
+        <v>46082</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="7">
-        <v>45383</v>
-      </c>
-      <c r="G1" s="7">
-        <v>45413</v>
-      </c>
-      <c r="H1" s="7">
-        <v>45444</v>
-      </c>
-      <c r="I1" s="7">
-        <v>45474</v>
-      </c>
-      <c r="J1" s="7">
-        <v>45505</v>
-      </c>
-      <c r="K1" s="7">
-        <v>45536</v>
-      </c>
-      <c r="L1" s="7">
-        <v>45566</v>
-      </c>
-      <c r="M1" s="7">
-        <v>45597</v>
-      </c>
-      <c r="N1" s="7">
-        <v>45627</v>
-      </c>
-      <c r="O1" s="7">
-        <v>45658</v>
-      </c>
-      <c r="P1" s="7">
-        <v>45689</v>
-      </c>
-      <c r="Q1" s="7">
-        <v>45717</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>47</v>
+      <c r="T1" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="10">
+      <c r="A2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="9">
         <v>5111410101</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="12">
-        <v>1</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
       <c r="R2" s="5">
         <f t="shared" ref="R2:R28" si="0">SUM(F2:K2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" s="5">
         <f>SUM(L2:Q2)</f>
@@ -817,37 +826,37 @@
       </c>
       <c r="T2" s="4">
         <f>R2+S2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="10">
+      <c r="A3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="9">
         <v>5111310101</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
       <c r="R3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -862,33 +871,33 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="10">
+      <c r="A4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="9">
         <v>5112210101</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
       <c r="R4" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -903,33 +912,33 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="A5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="9">
         <v>5116040101</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
       <c r="R5" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -944,33 +953,33 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="10">
+      <c r="A6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="9">
         <v>5117010101</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -985,33 +994,33 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
       <c r="R7" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1026,33 +1035,33 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
       <c r="R8" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1067,33 +1076,33 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="10">
+      <c r="A9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="9">
         <v>5112410101</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="D9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
       <c r="R9" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1108,33 +1117,33 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="10">
+      <c r="A10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="9">
         <v>4315060101</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
       <c r="R10" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1149,33 +1158,33 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="10">
+      <c r="A11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="9">
         <v>5111410101</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
       <c r="R11" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1190,33 +1199,33 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="10">
+      <c r="A12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="9">
         <v>5111310101</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="D12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
       <c r="R12" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1231,33 +1240,33 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="10">
+      <c r="A13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="9">
         <v>5112210101</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="11" t="s">
+      <c r="D13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
       <c r="R13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1272,33 +1281,33 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="10">
+      <c r="A14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="9">
         <v>5116040101</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="11" t="s">
+      <c r="D14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
       <c r="R14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1313,33 +1322,33 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="10">
+      <c r="A15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="9">
         <v>5117010101</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="11" t="s">
+      <c r="D15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
       <c r="R15" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1354,33 +1363,33 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="11" t="s">
+      <c r="D16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
       <c r="R16" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1395,33 +1404,33 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="10" t="s">
+      <c r="A17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="11" t="s">
+      <c r="D17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
       <c r="R17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1436,33 +1445,33 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="10">
+      <c r="A18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="9">
         <v>5112410101</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="11" t="s">
+      <c r="D18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
       <c r="R18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1477,33 +1486,33 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="10">
+      <c r="A19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="9">
         <v>4315060101</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="11" t="s">
+      <c r="D19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
       <c r="R19" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1518,33 +1527,33 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="10">
+      <c r="A20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="9">
         <v>5111410101</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="11" t="s">
+      <c r="D20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
       <c r="R20" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1559,33 +1568,33 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="10">
+      <c r="A21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="9">
         <v>5111310101</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="11" t="s">
+      <c r="D21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
       <c r="R21" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1600,33 +1609,33 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="10">
+      <c r="A22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="9">
         <v>5112210101</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="11" t="s">
+      <c r="D22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
       <c r="R22" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1641,33 +1650,33 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A23" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="10">
+      <c r="A23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="9">
         <v>5116040101</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="11" t="s">
+      <c r="D23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
       <c r="R23" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1682,33 +1691,33 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A24" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="10">
+      <c r="A24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="9">
         <v>5117010101</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="11" t="s">
+      <c r="D24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
       <c r="R24" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1723,33 +1732,33 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="10" t="s">
+      <c r="A25" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="11" t="s">
+      <c r="D25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
       <c r="R25" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1764,33 +1773,33 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="11" t="s">
+      <c r="D26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
       <c r="R26" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1805,33 +1814,33 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="10">
+      <c r="A27" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="9">
         <v>5112410101</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="11" t="s">
+      <c r="D27" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
       <c r="R27" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1846,33 +1855,33 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A28" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="14">
+      <c r="A28" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="13">
         <v>4315060101</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="15" t="s">
+      <c r="D28" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
       <c r="R28" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1891,6 +1900,7 @@
   <protectedRanges>
     <protectedRange sqref="A29:XFD139" name="OPEN 2"/>
     <protectedRange sqref="F2:Q1048576" name="OPEN 1"/>
+    <protectedRange sqref="F1:Q1" name="OPEN 1_1"/>
   </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1916,7 +1926,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1931,7 +1941,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1939,7 +1949,7 @@
         <v>45383</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -1959,7 +1969,7 @@
         <v>45413</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1979,7 +1989,7 @@
         <v>45444</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -1999,7 +2009,7 @@
         <v>45474</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -2019,7 +2029,7 @@
         <v>45505</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2039,7 +2049,7 @@
         <v>45536</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2059,7 +2069,7 @@
         <v>45566</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -2079,7 +2089,7 @@
         <v>45597</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -2099,7 +2109,7 @@
         <v>45627</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -2119,7 +2129,7 @@
         <v>45658</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -2139,7 +2149,7 @@
         <v>45689</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -2159,7 +2169,7 @@
         <v>45717</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -2179,7 +2189,7 @@
         <v>45383</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -2199,7 +2209,7 @@
         <v>45413</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -2219,7 +2229,7 @@
         <v>45444</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -2239,7 +2249,7 @@
         <v>45474</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -2259,7 +2269,7 @@
         <v>45505</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -2279,7 +2289,7 @@
         <v>45536</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -2299,7 +2309,7 @@
         <v>45566</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -2319,7 +2329,7 @@
         <v>45597</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -2339,7 +2349,7 @@
         <v>45627</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -2359,7 +2369,7 @@
         <v>45658</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -2379,7 +2389,7 @@
         <v>45689</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
@@ -2399,7 +2409,7 @@
         <v>45717</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -2419,7 +2429,7 @@
         <v>45383</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -2439,7 +2449,7 @@
         <v>45413</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -2459,7 +2469,7 @@
         <v>45444</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -2479,7 +2489,7 @@
         <v>45474</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -2499,7 +2509,7 @@
         <v>45505</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -2519,7 +2529,7 @@
         <v>45536</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
@@ -2539,7 +2549,7 @@
         <v>45566</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -2559,7 +2569,7 @@
         <v>45597</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -2579,7 +2589,7 @@
         <v>45627</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -2599,7 +2609,7 @@
         <v>45658</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
@@ -2619,7 +2629,7 @@
         <v>45689</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
@@ -2639,7 +2649,7 @@
         <v>45717</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
@@ -2659,7 +2669,7 @@
         <v>45383</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
@@ -2679,7 +2689,7 @@
         <v>45413</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
@@ -2699,7 +2709,7 @@
         <v>45444</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
@@ -2719,7 +2729,7 @@
         <v>45474</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
@@ -2739,7 +2749,7 @@
         <v>45505</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
@@ -2759,7 +2769,7 @@
         <v>45536</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
@@ -2779,7 +2789,7 @@
         <v>45566</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
@@ -2799,7 +2809,7 @@
         <v>45597</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
         <v>11</v>
@@ -2819,7 +2829,7 @@
         <v>45627</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
@@ -2839,7 +2849,7 @@
         <v>45658</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
         <v>11</v>
@@ -2859,7 +2869,7 @@
         <v>45689</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
@@ -2879,7 +2889,7 @@
         <v>45717</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
@@ -2899,7 +2909,7 @@
         <v>45383</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
         <v>13</v>
@@ -2919,7 +2929,7 @@
         <v>45413</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
         <v>13</v>
@@ -2939,7 +2949,7 @@
         <v>45444</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
@@ -2959,7 +2969,7 @@
         <v>45474</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C53" t="s">
         <v>13</v>
@@ -2979,7 +2989,7 @@
         <v>45505</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
@@ -2999,7 +3009,7 @@
         <v>45536</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
@@ -3019,7 +3029,7 @@
         <v>45566</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
@@ -3039,7 +3049,7 @@
         <v>45597</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
@@ -3059,7 +3069,7 @@
         <v>45627</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
@@ -3079,7 +3089,7 @@
         <v>45658</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
@@ -3099,7 +3109,7 @@
         <v>45689</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C60" t="s">
         <v>13</v>
@@ -3119,7 +3129,7 @@
         <v>45717</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C61" t="s">
         <v>13</v>
@@ -3619,7 +3629,7 @@
         <v>45383</v>
       </c>
       <c r="B86" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C86" t="s">
         <v>21</v>
@@ -3639,7 +3649,7 @@
         <v>45413</v>
       </c>
       <c r="B87" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C87" t="s">
         <v>21</v>
@@ -3659,7 +3669,7 @@
         <v>45444</v>
       </c>
       <c r="B88" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C88" t="s">
         <v>21</v>
@@ -3679,7 +3689,7 @@
         <v>45474</v>
       </c>
       <c r="B89" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C89" t="s">
         <v>21</v>
@@ -3699,7 +3709,7 @@
         <v>45505</v>
       </c>
       <c r="B90" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C90" t="s">
         <v>21</v>
@@ -3719,7 +3729,7 @@
         <v>45536</v>
       </c>
       <c r="B91" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C91" t="s">
         <v>21</v>
@@ -3739,7 +3749,7 @@
         <v>45566</v>
       </c>
       <c r="B92" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C92" t="s">
         <v>21</v>
@@ -3759,7 +3769,7 @@
         <v>45597</v>
       </c>
       <c r="B93" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C93" t="s">
         <v>21</v>
@@ -3779,7 +3789,7 @@
         <v>45627</v>
       </c>
       <c r="B94" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C94" t="s">
         <v>21</v>
@@ -3799,7 +3809,7 @@
         <v>45658</v>
       </c>
       <c r="B95" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C95" t="s">
         <v>21</v>
@@ -3819,7 +3829,7 @@
         <v>45689</v>
       </c>
       <c r="B96" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C96" t="s">
         <v>21</v>
@@ -3839,7 +3849,7 @@
         <v>45717</v>
       </c>
       <c r="B97" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C97" t="s">
         <v>21</v>
@@ -3859,7 +3869,7 @@
         <v>45383</v>
       </c>
       <c r="B98" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C98" t="s">
         <v>23</v>
@@ -3879,7 +3889,7 @@
         <v>45413</v>
       </c>
       <c r="B99" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C99" t="s">
         <v>23</v>
@@ -3899,7 +3909,7 @@
         <v>45444</v>
       </c>
       <c r="B100" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C100" t="s">
         <v>23</v>
@@ -3919,7 +3929,7 @@
         <v>45474</v>
       </c>
       <c r="B101" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C101" t="s">
         <v>23</v>
@@ -3939,7 +3949,7 @@
         <v>45505</v>
       </c>
       <c r="B102" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C102" t="s">
         <v>23</v>
@@ -3959,7 +3969,7 @@
         <v>45536</v>
       </c>
       <c r="B103" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C103" t="s">
         <v>23</v>
@@ -3979,7 +3989,7 @@
         <v>45566</v>
       </c>
       <c r="B104" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C104" t="s">
         <v>23</v>
@@ -3999,7 +4009,7 @@
         <v>45597</v>
       </c>
       <c r="B105" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C105" t="s">
         <v>23</v>
@@ -4019,7 +4029,7 @@
         <v>45627</v>
       </c>
       <c r="B106" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C106" t="s">
         <v>23</v>
@@ -4039,7 +4049,7 @@
         <v>45658</v>
       </c>
       <c r="B107" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C107" t="s">
         <v>23</v>
@@ -4059,7 +4069,7 @@
         <v>45689</v>
       </c>
       <c r="B108" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C108" t="s">
         <v>23</v>
@@ -4079,7 +4089,7 @@
         <v>45717</v>
       </c>
       <c r="B109" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C109" t="s">
         <v>23</v>
@@ -4099,7 +4109,7 @@
         <v>45383</v>
       </c>
       <c r="B110" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C110" t="s">
         <v>4</v>
@@ -4119,7 +4129,7 @@
         <v>45413</v>
       </c>
       <c r="B111" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C111" t="s">
         <v>4</v>
@@ -4139,7 +4149,7 @@
         <v>45444</v>
       </c>
       <c r="B112" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C112" t="s">
         <v>4</v>
@@ -4159,7 +4169,7 @@
         <v>45474</v>
       </c>
       <c r="B113" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C113" t="s">
         <v>4</v>
@@ -4179,7 +4189,7 @@
         <v>45505</v>
       </c>
       <c r="B114" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C114" t="s">
         <v>4</v>
@@ -4199,7 +4209,7 @@
         <v>45536</v>
       </c>
       <c r="B115" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C115" t="s">
         <v>4</v>
@@ -4219,7 +4229,7 @@
         <v>45566</v>
       </c>
       <c r="B116" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C116" t="s">
         <v>4</v>
@@ -4239,7 +4249,7 @@
         <v>45597</v>
       </c>
       <c r="B117" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C117" t="s">
         <v>4</v>
@@ -4259,7 +4269,7 @@
         <v>45627</v>
       </c>
       <c r="B118" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C118" t="s">
         <v>4</v>
@@ -4279,7 +4289,7 @@
         <v>45658</v>
       </c>
       <c r="B119" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C119" t="s">
         <v>4</v>
@@ -4299,7 +4309,7 @@
         <v>45689</v>
       </c>
       <c r="B120" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C120" t="s">
         <v>4</v>
@@ -4319,7 +4329,7 @@
         <v>45717</v>
       </c>
       <c r="B121" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C121" t="s">
         <v>4</v>
@@ -4339,7 +4349,7 @@
         <v>45383</v>
       </c>
       <c r="B122" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C122" t="s">
         <v>7</v>
@@ -4359,7 +4369,7 @@
         <v>45413</v>
       </c>
       <c r="B123" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C123" t="s">
         <v>7</v>
@@ -4379,7 +4389,7 @@
         <v>45444</v>
       </c>
       <c r="B124" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C124" t="s">
         <v>7</v>
@@ -4399,7 +4409,7 @@
         <v>45474</v>
       </c>
       <c r="B125" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C125" t="s">
         <v>7</v>
@@ -4419,7 +4429,7 @@
         <v>45505</v>
       </c>
       <c r="B126" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C126" t="s">
         <v>7</v>
@@ -4439,7 +4449,7 @@
         <v>45536</v>
       </c>
       <c r="B127" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C127" t="s">
         <v>7</v>
@@ -4459,7 +4469,7 @@
         <v>45566</v>
       </c>
       <c r="B128" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C128" t="s">
         <v>7</v>
@@ -4479,7 +4489,7 @@
         <v>45597</v>
       </c>
       <c r="B129" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C129" t="s">
         <v>7</v>
@@ -4499,7 +4509,7 @@
         <v>45627</v>
       </c>
       <c r="B130" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C130" t="s">
         <v>7</v>
@@ -4519,7 +4529,7 @@
         <v>45658</v>
       </c>
       <c r="B131" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C131" t="s">
         <v>7</v>
@@ -4539,7 +4549,7 @@
         <v>45689</v>
       </c>
       <c r="B132" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C132" t="s">
         <v>7</v>
@@ -4559,7 +4569,7 @@
         <v>45717</v>
       </c>
       <c r="B133" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C133" t="s">
         <v>7</v>
@@ -4579,7 +4589,7 @@
         <v>45383</v>
       </c>
       <c r="B134" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C134" t="s">
         <v>9</v>
@@ -4599,7 +4609,7 @@
         <v>45413</v>
       </c>
       <c r="B135" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C135" t="s">
         <v>9</v>
@@ -4619,7 +4629,7 @@
         <v>45444</v>
       </c>
       <c r="B136" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C136" t="s">
         <v>9</v>
@@ -4639,7 +4649,7 @@
         <v>45474</v>
       </c>
       <c r="B137" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C137" t="s">
         <v>9</v>
@@ -4659,7 +4669,7 @@
         <v>45505</v>
       </c>
       <c r="B138" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C138" t="s">
         <v>9</v>
@@ -4679,7 +4689,7 @@
         <v>45536</v>
       </c>
       <c r="B139" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C139" t="s">
         <v>9</v>
@@ -4699,7 +4709,7 @@
         <v>45566</v>
       </c>
       <c r="B140" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C140" t="s">
         <v>9</v>
@@ -4719,7 +4729,7 @@
         <v>45597</v>
       </c>
       <c r="B141" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C141" t="s">
         <v>9</v>
@@ -4739,7 +4749,7 @@
         <v>45627</v>
       </c>
       <c r="B142" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C142" t="s">
         <v>9</v>
@@ -4759,7 +4769,7 @@
         <v>45658</v>
       </c>
       <c r="B143" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C143" t="s">
         <v>9</v>
@@ -4779,7 +4789,7 @@
         <v>45689</v>
       </c>
       <c r="B144" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C144" t="s">
         <v>9</v>
@@ -4799,7 +4809,7 @@
         <v>45717</v>
       </c>
       <c r="B145" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C145" t="s">
         <v>9</v>
@@ -4819,7 +4829,7 @@
         <v>45383</v>
       </c>
       <c r="B146" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C146" t="s">
         <v>11</v>
@@ -4839,7 +4849,7 @@
         <v>45413</v>
       </c>
       <c r="B147" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C147" t="s">
         <v>11</v>
@@ -4859,7 +4869,7 @@
         <v>45444</v>
       </c>
       <c r="B148" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C148" t="s">
         <v>11</v>
@@ -4879,7 +4889,7 @@
         <v>45474</v>
       </c>
       <c r="B149" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C149" t="s">
         <v>11</v>
@@ -4899,7 +4909,7 @@
         <v>45505</v>
       </c>
       <c r="B150" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C150" t="s">
         <v>11</v>
@@ -4919,7 +4929,7 @@
         <v>45536</v>
       </c>
       <c r="B151" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C151" t="s">
         <v>11</v>
@@ -4939,7 +4949,7 @@
         <v>45566</v>
       </c>
       <c r="B152" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C152" t="s">
         <v>11</v>
@@ -4959,7 +4969,7 @@
         <v>45597</v>
       </c>
       <c r="B153" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C153" t="s">
         <v>11</v>
@@ -4979,7 +4989,7 @@
         <v>45627</v>
       </c>
       <c r="B154" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C154" t="s">
         <v>11</v>
@@ -4999,7 +5009,7 @@
         <v>45658</v>
       </c>
       <c r="B155" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C155" t="s">
         <v>11</v>
@@ -5019,7 +5029,7 @@
         <v>45689</v>
       </c>
       <c r="B156" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C156" t="s">
         <v>11</v>
@@ -5039,7 +5049,7 @@
         <v>45717</v>
       </c>
       <c r="B157" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C157" t="s">
         <v>11</v>
@@ -5059,7 +5069,7 @@
         <v>45383</v>
       </c>
       <c r="B158" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C158" t="s">
         <v>13</v>
@@ -5079,7 +5089,7 @@
         <v>45413</v>
       </c>
       <c r="B159" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C159" t="s">
         <v>13</v>
@@ -5099,7 +5109,7 @@
         <v>45444</v>
       </c>
       <c r="B160" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C160" t="s">
         <v>13</v>
@@ -5119,7 +5129,7 @@
         <v>45474</v>
       </c>
       <c r="B161" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C161" t="s">
         <v>13</v>
@@ -5139,7 +5149,7 @@
         <v>45505</v>
       </c>
       <c r="B162" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C162" t="s">
         <v>13</v>
@@ -5159,7 +5169,7 @@
         <v>45536</v>
       </c>
       <c r="B163" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C163" t="s">
         <v>13</v>
@@ -5179,7 +5189,7 @@
         <v>45566</v>
       </c>
       <c r="B164" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C164" t="s">
         <v>13</v>
@@ -5199,7 +5209,7 @@
         <v>45597</v>
       </c>
       <c r="B165" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C165" t="s">
         <v>13</v>
@@ -5219,7 +5229,7 @@
         <v>45627</v>
       </c>
       <c r="B166" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C166" t="s">
         <v>13</v>
@@ -5239,7 +5249,7 @@
         <v>45658</v>
       </c>
       <c r="B167" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C167" t="s">
         <v>13</v>
@@ -5259,7 +5269,7 @@
         <v>45689</v>
       </c>
       <c r="B168" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C168" t="s">
         <v>13</v>
@@ -5279,7 +5289,7 @@
         <v>45717</v>
       </c>
       <c r="B169" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C169" t="s">
         <v>13</v>
@@ -5779,7 +5789,7 @@
         <v>45383</v>
       </c>
       <c r="B194" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C194" t="s">
         <v>21</v>
@@ -5799,7 +5809,7 @@
         <v>45413</v>
       </c>
       <c r="B195" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C195" t="s">
         <v>21</v>
@@ -5819,7 +5829,7 @@
         <v>45444</v>
       </c>
       <c r="B196" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C196" t="s">
         <v>21</v>
@@ -5839,7 +5849,7 @@
         <v>45474</v>
       </c>
       <c r="B197" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C197" t="s">
         <v>21</v>
@@ -5859,7 +5869,7 @@
         <v>45505</v>
       </c>
       <c r="B198" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C198" t="s">
         <v>21</v>
@@ -5879,7 +5889,7 @@
         <v>45536</v>
       </c>
       <c r="B199" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C199" t="s">
         <v>21</v>
@@ -5899,7 +5909,7 @@
         <v>45566</v>
       </c>
       <c r="B200" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C200" t="s">
         <v>21</v>
@@ -5919,7 +5929,7 @@
         <v>45597</v>
       </c>
       <c r="B201" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C201" t="s">
         <v>21</v>
@@ -5939,7 +5949,7 @@
         <v>45627</v>
       </c>
       <c r="B202" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C202" t="s">
         <v>21</v>
@@ -5959,7 +5969,7 @@
         <v>45658</v>
       </c>
       <c r="B203" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C203" t="s">
         <v>21</v>
@@ -5979,7 +5989,7 @@
         <v>45689</v>
       </c>
       <c r="B204" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C204" t="s">
         <v>21</v>
@@ -5999,7 +6009,7 @@
         <v>45717</v>
       </c>
       <c r="B205" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C205" t="s">
         <v>21</v>
@@ -6019,7 +6029,7 @@
         <v>45383</v>
       </c>
       <c r="B206" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C206" t="s">
         <v>23</v>
@@ -6039,7 +6049,7 @@
         <v>45413</v>
       </c>
       <c r="B207" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C207" t="s">
         <v>23</v>
@@ -6059,7 +6069,7 @@
         <v>45444</v>
       </c>
       <c r="B208" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C208" t="s">
         <v>23</v>
@@ -6079,7 +6089,7 @@
         <v>45474</v>
       </c>
       <c r="B209" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C209" t="s">
         <v>23</v>
@@ -6099,7 +6109,7 @@
         <v>45505</v>
       </c>
       <c r="B210" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C210" t="s">
         <v>23</v>
@@ -6119,7 +6129,7 @@
         <v>45536</v>
       </c>
       <c r="B211" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C211" t="s">
         <v>23</v>
@@ -6139,7 +6149,7 @@
         <v>45566</v>
       </c>
       <c r="B212" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C212" t="s">
         <v>23</v>
@@ -6159,7 +6169,7 @@
         <v>45597</v>
       </c>
       <c r="B213" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C213" t="s">
         <v>23</v>
@@ -6179,7 +6189,7 @@
         <v>45627</v>
       </c>
       <c r="B214" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C214" t="s">
         <v>23</v>
@@ -6199,7 +6209,7 @@
         <v>45658</v>
       </c>
       <c r="B215" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C215" t="s">
         <v>23</v>
@@ -6219,7 +6229,7 @@
         <v>45689</v>
       </c>
       <c r="B216" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C216" t="s">
         <v>23</v>
@@ -6239,7 +6249,7 @@
         <v>45717</v>
       </c>
       <c r="B217" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C217" t="s">
         <v>23</v>
@@ -6259,7 +6269,7 @@
         <v>45383</v>
       </c>
       <c r="B218" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C218" t="s">
         <v>4</v>
@@ -6279,7 +6289,7 @@
         <v>45413</v>
       </c>
       <c r="B219" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C219" t="s">
         <v>4</v>
@@ -6299,7 +6309,7 @@
         <v>45444</v>
       </c>
       <c r="B220" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C220" t="s">
         <v>4</v>
@@ -6319,7 +6329,7 @@
         <v>45474</v>
       </c>
       <c r="B221" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C221" t="s">
         <v>4</v>
@@ -6339,7 +6349,7 @@
         <v>45505</v>
       </c>
       <c r="B222" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C222" t="s">
         <v>4</v>
@@ -6359,7 +6369,7 @@
         <v>45536</v>
       </c>
       <c r="B223" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C223" t="s">
         <v>4</v>
@@ -6379,7 +6389,7 @@
         <v>45566</v>
       </c>
       <c r="B224" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C224" t="s">
         <v>4</v>
@@ -6399,7 +6409,7 @@
         <v>45597</v>
       </c>
       <c r="B225" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C225" t="s">
         <v>4</v>
@@ -6419,7 +6429,7 @@
         <v>45627</v>
       </c>
       <c r="B226" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C226" t="s">
         <v>4</v>
@@ -6439,7 +6449,7 @@
         <v>45658</v>
       </c>
       <c r="B227" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C227" t="s">
         <v>4</v>
@@ -6459,7 +6469,7 @@
         <v>45689</v>
       </c>
       <c r="B228" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C228" t="s">
         <v>4</v>
@@ -6479,7 +6489,7 @@
         <v>45717</v>
       </c>
       <c r="B229" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C229" t="s">
         <v>4</v>
@@ -6499,7 +6509,7 @@
         <v>45383</v>
       </c>
       <c r="B230" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C230" t="s">
         <v>7</v>
@@ -6519,7 +6529,7 @@
         <v>45413</v>
       </c>
       <c r="B231" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C231" t="s">
         <v>7</v>
@@ -6539,7 +6549,7 @@
         <v>45444</v>
       </c>
       <c r="B232" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C232" t="s">
         <v>7</v>
@@ -6559,7 +6569,7 @@
         <v>45474</v>
       </c>
       <c r="B233" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C233" t="s">
         <v>7</v>
@@ -6579,7 +6589,7 @@
         <v>45505</v>
       </c>
       <c r="B234" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C234" t="s">
         <v>7</v>
@@ -6599,7 +6609,7 @@
         <v>45536</v>
       </c>
       <c r="B235" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C235" t="s">
         <v>7</v>
@@ -6619,7 +6629,7 @@
         <v>45566</v>
       </c>
       <c r="B236" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C236" t="s">
         <v>7</v>
@@ -6639,7 +6649,7 @@
         <v>45597</v>
       </c>
       <c r="B237" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C237" t="s">
         <v>7</v>
@@ -6659,7 +6669,7 @@
         <v>45627</v>
       </c>
       <c r="B238" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C238" t="s">
         <v>7</v>
@@ -6679,7 +6689,7 @@
         <v>45658</v>
       </c>
       <c r="B239" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C239" t="s">
         <v>7</v>
@@ -6699,7 +6709,7 @@
         <v>45689</v>
       </c>
       <c r="B240" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C240" t="s">
         <v>7</v>
@@ -6719,7 +6729,7 @@
         <v>45717</v>
       </c>
       <c r="B241" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C241" t="s">
         <v>7</v>
@@ -6739,7 +6749,7 @@
         <v>45383</v>
       </c>
       <c r="B242" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C242" t="s">
         <v>9</v>
@@ -6759,7 +6769,7 @@
         <v>45413</v>
       </c>
       <c r="B243" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C243" t="s">
         <v>9</v>
@@ -6779,7 +6789,7 @@
         <v>45444</v>
       </c>
       <c r="B244" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C244" t="s">
         <v>9</v>
@@ -6799,7 +6809,7 @@
         <v>45474</v>
       </c>
       <c r="B245" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C245" t="s">
         <v>9</v>
@@ -6819,7 +6829,7 @@
         <v>45505</v>
       </c>
       <c r="B246" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C246" t="s">
         <v>9</v>
@@ -6839,7 +6849,7 @@
         <v>45536</v>
       </c>
       <c r="B247" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C247" t="s">
         <v>9</v>
@@ -6859,7 +6869,7 @@
         <v>45566</v>
       </c>
       <c r="B248" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C248" t="s">
         <v>9</v>
@@ -6879,7 +6889,7 @@
         <v>45597</v>
       </c>
       <c r="B249" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C249" t="s">
         <v>9</v>
@@ -6899,7 +6909,7 @@
         <v>45627</v>
       </c>
       <c r="B250" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C250" t="s">
         <v>9</v>
@@ -6919,7 +6929,7 @@
         <v>45658</v>
       </c>
       <c r="B251" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C251" t="s">
         <v>9</v>
@@ -6939,7 +6949,7 @@
         <v>45689</v>
       </c>
       <c r="B252" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C252" t="s">
         <v>9</v>
@@ -6959,7 +6969,7 @@
         <v>45717</v>
       </c>
       <c r="B253" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C253" t="s">
         <v>9</v>
@@ -6979,7 +6989,7 @@
         <v>45383</v>
       </c>
       <c r="B254" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C254" t="s">
         <v>11</v>
@@ -6999,7 +7009,7 @@
         <v>45413</v>
       </c>
       <c r="B255" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C255" t="s">
         <v>11</v>
@@ -7019,7 +7029,7 @@
         <v>45444</v>
       </c>
       <c r="B256" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C256" t="s">
         <v>11</v>
@@ -7039,7 +7049,7 @@
         <v>45474</v>
       </c>
       <c r="B257" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C257" t="s">
         <v>11</v>
@@ -7059,7 +7069,7 @@
         <v>45505</v>
       </c>
       <c r="B258" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C258" t="s">
         <v>11</v>
@@ -7079,7 +7089,7 @@
         <v>45536</v>
       </c>
       <c r="B259" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C259" t="s">
         <v>11</v>
@@ -7099,7 +7109,7 @@
         <v>45566</v>
       </c>
       <c r="B260" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C260" t="s">
         <v>11</v>
@@ -7119,7 +7129,7 @@
         <v>45597</v>
       </c>
       <c r="B261" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C261" t="s">
         <v>11</v>
@@ -7139,7 +7149,7 @@
         <v>45627</v>
       </c>
       <c r="B262" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C262" t="s">
         <v>11</v>
@@ -7159,7 +7169,7 @@
         <v>45658</v>
       </c>
       <c r="B263" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C263" t="s">
         <v>11</v>
@@ -7179,7 +7189,7 @@
         <v>45689</v>
       </c>
       <c r="B264" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C264" t="s">
         <v>11</v>
@@ -7199,7 +7209,7 @@
         <v>45717</v>
       </c>
       <c r="B265" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C265" t="s">
         <v>11</v>
@@ -7219,7 +7229,7 @@
         <v>45383</v>
       </c>
       <c r="B266" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C266" t="s">
         <v>13</v>
@@ -7239,7 +7249,7 @@
         <v>45413</v>
       </c>
       <c r="B267" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C267" t="s">
         <v>13</v>
@@ -7259,7 +7269,7 @@
         <v>45444</v>
       </c>
       <c r="B268" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C268" t="s">
         <v>13</v>
@@ -7279,7 +7289,7 @@
         <v>45474</v>
       </c>
       <c r="B269" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C269" t="s">
         <v>13</v>
@@ -7299,7 +7309,7 @@
         <v>45505</v>
       </c>
       <c r="B270" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C270" t="s">
         <v>13</v>
@@ -7319,7 +7329,7 @@
         <v>45536</v>
       </c>
       <c r="B271" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C271" t="s">
         <v>13</v>
@@ -7339,7 +7349,7 @@
         <v>45566</v>
       </c>
       <c r="B272" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C272" t="s">
         <v>13</v>
@@ -7359,7 +7369,7 @@
         <v>45597</v>
       </c>
       <c r="B273" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C273" t="s">
         <v>13</v>
@@ -7379,7 +7389,7 @@
         <v>45627</v>
       </c>
       <c r="B274" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C274" t="s">
         <v>13</v>
@@ -7399,7 +7409,7 @@
         <v>45658</v>
       </c>
       <c r="B275" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C275" t="s">
         <v>13</v>
@@ -7419,7 +7429,7 @@
         <v>45689</v>
       </c>
       <c r="B276" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C276" t="s">
         <v>13</v>
@@ -7439,7 +7449,7 @@
         <v>45717</v>
       </c>
       <c r="B277" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C277" t="s">
         <v>13</v>
@@ -7939,7 +7949,7 @@
         <v>45383</v>
       </c>
       <c r="B302" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C302" t="s">
         <v>21</v>
@@ -7959,7 +7969,7 @@
         <v>45413</v>
       </c>
       <c r="B303" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C303" t="s">
         <v>21</v>
@@ -7979,7 +7989,7 @@
         <v>45444</v>
       </c>
       <c r="B304" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C304" t="s">
         <v>21</v>
@@ -7999,7 +8009,7 @@
         <v>45474</v>
       </c>
       <c r="B305" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C305" t="s">
         <v>21</v>
@@ -8019,7 +8029,7 @@
         <v>45505</v>
       </c>
       <c r="B306" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C306" t="s">
         <v>21</v>
@@ -8039,7 +8049,7 @@
         <v>45536</v>
       </c>
       <c r="B307" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C307" t="s">
         <v>21</v>
@@ -8059,7 +8069,7 @@
         <v>45566</v>
       </c>
       <c r="B308" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C308" t="s">
         <v>21</v>
@@ -8079,7 +8089,7 @@
         <v>45597</v>
       </c>
       <c r="B309" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C309" t="s">
         <v>21</v>
@@ -8099,7 +8109,7 @@
         <v>45627</v>
       </c>
       <c r="B310" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C310" t="s">
         <v>21</v>
@@ -8119,7 +8129,7 @@
         <v>45658</v>
       </c>
       <c r="B311" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C311" t="s">
         <v>21</v>
@@ -8139,7 +8149,7 @@
         <v>45689</v>
       </c>
       <c r="B312" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C312" t="s">
         <v>21</v>
@@ -8159,7 +8169,7 @@
         <v>45717</v>
       </c>
       <c r="B313" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C313" t="s">
         <v>21</v>
@@ -8179,7 +8189,7 @@
         <v>45383</v>
       </c>
       <c r="B314" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C314" t="s">
         <v>23</v>
@@ -8199,7 +8209,7 @@
         <v>45413</v>
       </c>
       <c r="B315" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C315" t="s">
         <v>23</v>
@@ -8219,7 +8229,7 @@
         <v>45444</v>
       </c>
       <c r="B316" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C316" t="s">
         <v>23</v>
@@ -8239,7 +8249,7 @@
         <v>45474</v>
       </c>
       <c r="B317" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C317" t="s">
         <v>23</v>
@@ -8259,7 +8269,7 @@
         <v>45505</v>
       </c>
       <c r="B318" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C318" t="s">
         <v>23</v>
@@ -8279,7 +8289,7 @@
         <v>45536</v>
       </c>
       <c r="B319" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C319" t="s">
         <v>23</v>
@@ -8299,7 +8309,7 @@
         <v>45566</v>
       </c>
       <c r="B320" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C320" t="s">
         <v>23</v>
@@ -8319,7 +8329,7 @@
         <v>45597</v>
       </c>
       <c r="B321" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C321" t="s">
         <v>23</v>
@@ -8339,7 +8349,7 @@
         <v>45627</v>
       </c>
       <c r="B322" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C322" t="s">
         <v>23</v>
@@ -8359,7 +8369,7 @@
         <v>45658</v>
       </c>
       <c r="B323" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C323" t="s">
         <v>23</v>
@@ -8379,7 +8389,7 @@
         <v>45689</v>
       </c>
       <c r="B324" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C324" t="s">
         <v>23</v>
@@ -8399,7 +8409,7 @@
         <v>45717</v>
       </c>
       <c r="B325" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C325" t="s">
         <v>23</v>
